--- a/assets/template/template_siswa.xlsx
+++ b/assets/template/template_siswa.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>No</t>
   </si>
@@ -33,24 +33,12 @@
     <t>Tempat Lahir</t>
   </si>
   <si>
-    <t>Contoh</t>
-  </si>
-  <si>
-    <t>Bandung</t>
-  </si>
-  <si>
     <t>Tgl Lahir (dd-mm-yyyy)</t>
   </si>
   <si>
     <t>NISN</t>
   </si>
   <si>
-    <t>Muhammad Abdurrahman</t>
-  </si>
-  <si>
-    <t>15-05-2007</t>
-  </si>
-  <si>
     <t>Nis Lokal</t>
   </si>
   <si>
@@ -100,6 +88,9 @@
   </si>
   <si>
     <t>Alamat Siswa</t>
+  </si>
+  <si>
+    <t>Password</t>
   </si>
 </sst>
 </file>
@@ -482,10 +473,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W51"/>
+  <dimension ref="A1:X51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.25"/>
@@ -496,32 +487,32 @@
     <col min="4" max="4" width="34.5703125" style="4" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" style="12" customWidth="1"/>
     <col min="6" max="6" width="22.42578125" style="4" customWidth="1"/>
-    <col min="7" max="8" width="21.7109375" style="4" customWidth="1"/>
-    <col min="9" max="9" width="12.5703125" style="12" customWidth="1"/>
-    <col min="10" max="10" width="15.42578125" style="12" customWidth="1"/>
-    <col min="11" max="11" width="9.140625" style="4" customWidth="1"/>
-    <col min="12" max="14" width="21.7109375" style="4" customWidth="1"/>
-    <col min="15" max="15" width="9.140625" customWidth="1"/>
-    <col min="16" max="16" width="27" style="4" customWidth="1"/>
-    <col min="17" max="17" width="29.140625" style="4" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" style="4" customWidth="1"/>
-    <col min="19" max="19" width="15.85546875" style="4" customWidth="1"/>
-    <col min="20" max="20" width="27.42578125" style="4" customWidth="1"/>
-    <col min="21" max="21" width="26.85546875" style="4" customWidth="1"/>
-    <col min="22" max="22" width="17.140625" style="4" customWidth="1"/>
-    <col min="23" max="23" width="27.5703125" style="4" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" hidden="1"/>
+    <col min="7" max="9" width="21.7109375" style="4" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" style="12" customWidth="1"/>
+    <col min="11" max="11" width="15.42578125" style="12" customWidth="1"/>
+    <col min="12" max="12" width="9.140625" style="4" customWidth="1"/>
+    <col min="13" max="15" width="21.7109375" style="4" customWidth="1"/>
+    <col min="16" max="16" width="9.140625" customWidth="1"/>
+    <col min="17" max="17" width="27" style="4" customWidth="1"/>
+    <col min="18" max="18" width="29.140625" style="4" customWidth="1"/>
+    <col min="19" max="19" width="16.42578125" style="4" customWidth="1"/>
+    <col min="20" max="20" width="15.85546875" style="4" customWidth="1"/>
+    <col min="21" max="21" width="27.42578125" style="4" customWidth="1"/>
+    <col min="22" max="22" width="26.85546875" style="4" customWidth="1"/>
+    <col min="23" max="23" width="17.140625" style="4" customWidth="1"/>
+    <col min="24" max="24" width="27.5703125" style="4" customWidth="1"/>
+    <col min="25" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="6" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>1</v>
@@ -533,88 +524,77 @@
         <v>3</v>
       </c>
       <c r="G1" s="8" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I1" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="O1" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="7" t="s">
+      <c r="P1" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="7" t="s">
+      <c r="T1" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="W1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="X1" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="T1" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="W1" s="5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2">
-        <v>123456</v>
-      </c>
-      <c r="C2" s="3">
-        <v>1234567890</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3"/>
+      <c r="D2" s="2"/>
       <c r="E2" s="11"/>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
-      </c>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="11"/>
+      <c r="I2" s="2"/>
       <c r="J2" s="11"/>
-      <c r="K2" s="2"/>
+      <c r="K2" s="11"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
-      <c r="N2" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="O2" s="1"/>
-      <c r="P2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="1"/>
       <c r="Q2" s="2"/>
       <c r="R2" s="2"/>
       <c r="S2" s="2"/>
@@ -622,8 +602,9 @@
       <c r="U2" s="2"/>
       <c r="V2" s="2"/>
       <c r="W2" s="2"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X2" s="2"/>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -632,14 +613,14 @@
       <c r="F3" s="2"/>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="11"/>
+      <c r="I3" s="2"/>
       <c r="J3" s="11"/>
-      <c r="K3" s="2"/>
+      <c r="K3" s="11"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="2"/>
+      <c r="O3" s="2"/>
+      <c r="P3" s="1"/>
       <c r="Q3" s="2"/>
       <c r="R3" s="2"/>
       <c r="S3" s="2"/>
@@ -647,8 +628,9 @@
       <c r="U3" s="2"/>
       <c r="V3" s="2"/>
       <c r="W3" s="2"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X3" s="2"/>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -657,14 +639,14 @@
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="11"/>
+      <c r="I4" s="2"/>
       <c r="J4" s="11"/>
-      <c r="K4" s="2"/>
+      <c r="K4" s="11"/>
       <c r="L4" s="2"/>
       <c r="M4" s="2"/>
       <c r="N4" s="2"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="1"/>
       <c r="Q4" s="2"/>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
@@ -672,8 +654,9 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
       <c r="W4" s="2"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X4" s="2"/>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -682,14 +665,14 @@
       <c r="F5" s="2"/>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
-      <c r="I5" s="11"/>
+      <c r="I5" s="2"/>
       <c r="J5" s="11"/>
-      <c r="K5" s="2"/>
+      <c r="K5" s="11"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
       <c r="N5" s="2"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="1"/>
       <c r="Q5" s="2"/>
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
@@ -697,8 +680,9 @@
       <c r="U5" s="2"/>
       <c r="V5" s="2"/>
       <c r="W5" s="2"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X5" s="2"/>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
@@ -707,14 +691,14 @@
       <c r="F6" s="2"/>
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
-      <c r="I6" s="11"/>
+      <c r="I6" s="2"/>
       <c r="J6" s="11"/>
-      <c r="K6" s="2"/>
+      <c r="K6" s="11"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
       <c r="N6" s="2"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="1"/>
       <c r="Q6" s="2"/>
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
@@ -722,8 +706,9 @@
       <c r="U6" s="2"/>
       <c r="V6" s="2"/>
       <c r="W6" s="2"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X6" s="2"/>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
@@ -732,14 +717,14 @@
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
-      <c r="I7" s="11"/>
+      <c r="I7" s="2"/>
       <c r="J7" s="11"/>
-      <c r="K7" s="2"/>
+      <c r="K7" s="11"/>
       <c r="L7" s="2"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="1"/>
       <c r="Q7" s="2"/>
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
@@ -747,8 +732,9 @@
       <c r="U7" s="2"/>
       <c r="V7" s="2"/>
       <c r="W7" s="2"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X7" s="2"/>
+    </row>
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
@@ -757,14 +743,14 @@
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
-      <c r="I8" s="11"/>
+      <c r="I8" s="2"/>
       <c r="J8" s="11"/>
-      <c r="K8" s="2"/>
+      <c r="K8" s="11"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
       <c r="N8" s="2"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="1"/>
       <c r="Q8" s="2"/>
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
@@ -772,8 +758,9 @@
       <c r="U8" s="2"/>
       <c r="V8" s="2"/>
       <c r="W8" s="2"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X8" s="2"/>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -782,14 +769,14 @@
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
-      <c r="I9" s="11"/>
+      <c r="I9" s="2"/>
       <c r="J9" s="11"/>
-      <c r="K9" s="2"/>
+      <c r="K9" s="11"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
       <c r="N9" s="2"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="1"/>
       <c r="Q9" s="2"/>
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
@@ -797,8 +784,9 @@
       <c r="U9" s="2"/>
       <c r="V9" s="2"/>
       <c r="W9" s="2"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X9" s="2"/>
+    </row>
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -807,14 +795,14 @@
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
-      <c r="I10" s="11"/>
+      <c r="I10" s="2"/>
       <c r="J10" s="11"/>
-      <c r="K10" s="2"/>
+      <c r="K10" s="11"/>
       <c r="L10" s="2"/>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="1"/>
       <c r="Q10" s="2"/>
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
@@ -822,8 +810,9 @@
       <c r="U10" s="2"/>
       <c r="V10" s="2"/>
       <c r="W10" s="2"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X10" s="2"/>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -832,14 +821,14 @@
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
-      <c r="I11" s="11"/>
+      <c r="I11" s="2"/>
       <c r="J11" s="11"/>
-      <c r="K11" s="2"/>
+      <c r="K11" s="11"/>
       <c r="L11" s="2"/>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="1"/>
       <c r="Q11" s="2"/>
       <c r="R11" s="2"/>
       <c r="S11" s="2"/>
@@ -847,8 +836,9 @@
       <c r="U11" s="2"/>
       <c r="V11" s="2"/>
       <c r="W11" s="2"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X11" s="2"/>
+    </row>
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -857,14 +847,14 @@
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
-      <c r="I12" s="11"/>
+      <c r="I12" s="2"/>
       <c r="J12" s="11"/>
-      <c r="K12" s="2"/>
+      <c r="K12" s="11"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="2"/>
+      <c r="O12" s="2"/>
+      <c r="P12" s="1"/>
       <c r="Q12" s="2"/>
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
@@ -872,8 +862,9 @@
       <c r="U12" s="2"/>
       <c r="V12" s="2"/>
       <c r="W12" s="2"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X12" s="2"/>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -882,14 +873,14 @@
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
-      <c r="I13" s="11"/>
+      <c r="I13" s="2"/>
       <c r="J13" s="11"/>
-      <c r="K13" s="2"/>
+      <c r="K13" s="11"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="2"/>
+      <c r="O13" s="2"/>
+      <c r="P13" s="1"/>
       <c r="Q13" s="2"/>
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
@@ -897,8 +888,9 @@
       <c r="U13" s="2"/>
       <c r="V13" s="2"/>
       <c r="W13" s="2"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X13" s="2"/>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="2"/>
@@ -907,14 +899,14 @@
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="11"/>
+      <c r="I14" s="2"/>
       <c r="J14" s="11"/>
-      <c r="K14" s="2"/>
+      <c r="K14" s="11"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="2"/>
+      <c r="O14" s="2"/>
+      <c r="P14" s="1"/>
       <c r="Q14" s="2"/>
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
@@ -922,8 +914,9 @@
       <c r="U14" s="2"/>
       <c r="V14" s="2"/>
       <c r="W14" s="2"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X14" s="2"/>
+    </row>
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="2"/>
@@ -932,14 +925,14 @@
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
-      <c r="I15" s="11"/>
+      <c r="I15" s="2"/>
       <c r="J15" s="11"/>
-      <c r="K15" s="2"/>
+      <c r="K15" s="11"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="2"/>
+      <c r="O15" s="2"/>
+      <c r="P15" s="1"/>
       <c r="Q15" s="2"/>
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
@@ -947,8 +940,9 @@
       <c r="U15" s="2"/>
       <c r="V15" s="2"/>
       <c r="W15" s="2"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X15" s="2"/>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
@@ -957,14 +951,14 @@
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
-      <c r="I16" s="11"/>
+      <c r="I16" s="2"/>
       <c r="J16" s="11"/>
-      <c r="K16" s="2"/>
+      <c r="K16" s="11"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="1"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
@@ -972,8 +966,9 @@
       <c r="U16" s="2"/>
       <c r="V16" s="2"/>
       <c r="W16" s="2"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X16" s="2"/>
+    </row>
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
       <c r="C17" s="2"/>
@@ -982,14 +977,14 @@
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
-      <c r="I17" s="11"/>
+      <c r="I17" s="2"/>
       <c r="J17" s="11"/>
-      <c r="K17" s="2"/>
+      <c r="K17" s="11"/>
       <c r="L17" s="2"/>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
-      <c r="O17" s="1"/>
-      <c r="P17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="1"/>
       <c r="Q17" s="2"/>
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
@@ -997,8 +992,9 @@
       <c r="U17" s="2"/>
       <c r="V17" s="2"/>
       <c r="W17" s="2"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X17" s="2"/>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
       <c r="C18" s="2"/>
@@ -1007,14 +1003,14 @@
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
-      <c r="I18" s="11"/>
+      <c r="I18" s="2"/>
       <c r="J18" s="11"/>
-      <c r="K18" s="2"/>
+      <c r="K18" s="11"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="1"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
@@ -1022,8 +1018,9 @@
       <c r="U18" s="2"/>
       <c r="V18" s="2"/>
       <c r="W18" s="2"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X18" s="2"/>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
       <c r="C19" s="2"/>
@@ -1032,14 +1029,14 @@
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
-      <c r="I19" s="11"/>
+      <c r="I19" s="2"/>
       <c r="J19" s="11"/>
-      <c r="K19" s="2"/>
+      <c r="K19" s="11"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="1"/>
       <c r="Q19" s="2"/>
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
@@ -1047,8 +1044,9 @@
       <c r="U19" s="2"/>
       <c r="V19" s="2"/>
       <c r="W19" s="2"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X19" s="2"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
       <c r="C20" s="2"/>
@@ -1057,14 +1055,14 @@
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
-      <c r="I20" s="11"/>
+      <c r="I20" s="2"/>
       <c r="J20" s="11"/>
-      <c r="K20" s="2"/>
+      <c r="K20" s="11"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="1"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
@@ -1072,8 +1070,9 @@
       <c r="U20" s="2"/>
       <c r="V20" s="2"/>
       <c r="W20" s="2"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X20" s="2"/>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
       <c r="C21" s="2"/>
@@ -1082,14 +1081,14 @@
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
-      <c r="I21" s="11"/>
+      <c r="I21" s="2"/>
       <c r="J21" s="11"/>
-      <c r="K21" s="2"/>
+      <c r="K21" s="11"/>
       <c r="L21" s="2"/>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="1"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
@@ -1097,8 +1096,9 @@
       <c r="U21" s="2"/>
       <c r="V21" s="2"/>
       <c r="W21" s="2"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X21" s="2"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
@@ -1107,14 +1107,14 @@
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22" s="11"/>
+      <c r="I22" s="2"/>
       <c r="J22" s="11"/>
-      <c r="K22" s="2"/>
+      <c r="K22" s="11"/>
       <c r="L22" s="2"/>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
-      <c r="O22" s="1"/>
-      <c r="P22" s="2"/>
+      <c r="O22" s="2"/>
+      <c r="P22" s="1"/>
       <c r="Q22" s="2"/>
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
@@ -1122,8 +1122,9 @@
       <c r="U22" s="2"/>
       <c r="V22" s="2"/>
       <c r="W22" s="2"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X22" s="2"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
       <c r="C23" s="2"/>
@@ -1132,14 +1133,14 @@
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23" s="11"/>
+      <c r="I23" s="2"/>
       <c r="J23" s="11"/>
-      <c r="K23" s="2"/>
+      <c r="K23" s="11"/>
       <c r="L23" s="2"/>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
-      <c r="O23" s="1"/>
-      <c r="P23" s="2"/>
+      <c r="O23" s="2"/>
+      <c r="P23" s="1"/>
       <c r="Q23" s="2"/>
       <c r="R23" s="2"/>
       <c r="S23" s="2"/>
@@ -1147,8 +1148,9 @@
       <c r="U23" s="2"/>
       <c r="V23" s="2"/>
       <c r="W23" s="2"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X23" s="2"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
       <c r="C24" s="2"/>
@@ -1157,14 +1159,14 @@
       <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
-      <c r="I24" s="11"/>
+      <c r="I24" s="2"/>
       <c r="J24" s="11"/>
-      <c r="K24" s="2"/>
+      <c r="K24" s="11"/>
       <c r="L24" s="2"/>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
-      <c r="O24" s="1"/>
-      <c r="P24" s="2"/>
+      <c r="O24" s="2"/>
+      <c r="P24" s="1"/>
       <c r="Q24" s="2"/>
       <c r="R24" s="2"/>
       <c r="S24" s="2"/>
@@ -1172,8 +1174,9 @@
       <c r="U24" s="2"/>
       <c r="V24" s="2"/>
       <c r="W24" s="2"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X24" s="2"/>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
       <c r="C25" s="2"/>
@@ -1182,14 +1185,14 @@
       <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
-      <c r="I25" s="11"/>
+      <c r="I25" s="2"/>
       <c r="J25" s="11"/>
-      <c r="K25" s="2"/>
+      <c r="K25" s="11"/>
       <c r="L25" s="2"/>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
-      <c r="O25" s="1"/>
-      <c r="P25" s="2"/>
+      <c r="O25" s="2"/>
+      <c r="P25" s="1"/>
       <c r="Q25" s="2"/>
       <c r="R25" s="2"/>
       <c r="S25" s="2"/>
@@ -1197,8 +1200,9 @@
       <c r="U25" s="2"/>
       <c r="V25" s="2"/>
       <c r="W25" s="2"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X25" s="2"/>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26" s="1"/>
       <c r="B26" s="2"/>
       <c r="C26" s="2"/>
@@ -1207,14 +1211,14 @@
       <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
-      <c r="I26" s="11"/>
+      <c r="I26" s="2"/>
       <c r="J26" s="11"/>
-      <c r="K26" s="2"/>
+      <c r="K26" s="11"/>
       <c r="L26" s="2"/>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
-      <c r="O26" s="1"/>
-      <c r="P26" s="2"/>
+      <c r="O26" s="2"/>
+      <c r="P26" s="1"/>
       <c r="Q26" s="2"/>
       <c r="R26" s="2"/>
       <c r="S26" s="2"/>
@@ -1222,8 +1226,9 @@
       <c r="U26" s="2"/>
       <c r="V26" s="2"/>
       <c r="W26" s="2"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X26" s="2"/>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27" s="1"/>
       <c r="B27" s="2"/>
       <c r="C27" s="2"/>
@@ -1232,14 +1237,14 @@
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
-      <c r="I27" s="11"/>
+      <c r="I27" s="2"/>
       <c r="J27" s="11"/>
-      <c r="K27" s="2"/>
+      <c r="K27" s="11"/>
       <c r="L27" s="2"/>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
-      <c r="O27" s="1"/>
-      <c r="P27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="1"/>
       <c r="Q27" s="2"/>
       <c r="R27" s="2"/>
       <c r="S27" s="2"/>
@@ -1247,8 +1252,9 @@
       <c r="U27" s="2"/>
       <c r="V27" s="2"/>
       <c r="W27" s="2"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X27" s="2"/>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28" s="1"/>
       <c r="B28" s="2"/>
       <c r="C28" s="2"/>
@@ -1257,14 +1263,14 @@
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
-      <c r="I28" s="11"/>
+      <c r="I28" s="2"/>
       <c r="J28" s="11"/>
-      <c r="K28" s="2"/>
+      <c r="K28" s="11"/>
       <c r="L28" s="2"/>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
-      <c r="O28" s="1"/>
-      <c r="P28" s="2"/>
+      <c r="O28" s="2"/>
+      <c r="P28" s="1"/>
       <c r="Q28" s="2"/>
       <c r="R28" s="2"/>
       <c r="S28" s="2"/>
@@ -1272,8 +1278,9 @@
       <c r="U28" s="2"/>
       <c r="V28" s="2"/>
       <c r="W28" s="2"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X28" s="2"/>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29" s="1"/>
       <c r="B29" s="2"/>
       <c r="C29" s="2"/>
@@ -1282,14 +1289,14 @@
       <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
-      <c r="I29" s="11"/>
+      <c r="I29" s="2"/>
       <c r="J29" s="11"/>
-      <c r="K29" s="2"/>
+      <c r="K29" s="11"/>
       <c r="L29" s="2"/>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
-      <c r="O29" s="1"/>
-      <c r="P29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="1"/>
       <c r="Q29" s="2"/>
       <c r="R29" s="2"/>
       <c r="S29" s="2"/>
@@ -1297,8 +1304,9 @@
       <c r="U29" s="2"/>
       <c r="V29" s="2"/>
       <c r="W29" s="2"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X29" s="2"/>
+    </row>
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30" s="1"/>
       <c r="B30" s="2"/>
       <c r="C30" s="2"/>
@@ -1307,14 +1315,14 @@
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
-      <c r="I30" s="11"/>
+      <c r="I30" s="2"/>
       <c r="J30" s="11"/>
-      <c r="K30" s="2"/>
+      <c r="K30" s="11"/>
       <c r="L30" s="2"/>
       <c r="M30" s="2"/>
       <c r="N30" s="2"/>
-      <c r="O30" s="1"/>
-      <c r="P30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="1"/>
       <c r="Q30" s="2"/>
       <c r="R30" s="2"/>
       <c r="S30" s="2"/>
@@ -1322,8 +1330,9 @@
       <c r="U30" s="2"/>
       <c r="V30" s="2"/>
       <c r="W30" s="2"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X30" s="2"/>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31" s="1"/>
       <c r="B31" s="2"/>
       <c r="C31" s="2"/>
@@ -1332,14 +1341,14 @@
       <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
-      <c r="I31" s="11"/>
+      <c r="I31" s="2"/>
       <c r="J31" s="11"/>
-      <c r="K31" s="2"/>
+      <c r="K31" s="11"/>
       <c r="L31" s="2"/>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
-      <c r="O31" s="1"/>
-      <c r="P31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="1"/>
       <c r="Q31" s="2"/>
       <c r="R31" s="2"/>
       <c r="S31" s="2"/>
@@ -1347,8 +1356,9 @@
       <c r="U31" s="2"/>
       <c r="V31" s="2"/>
       <c r="W31" s="2"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X31" s="2"/>
+    </row>
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32" s="1"/>
       <c r="B32" s="2"/>
       <c r="C32" s="2"/>
@@ -1357,14 +1367,14 @@
       <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
-      <c r="I32" s="11"/>
+      <c r="I32" s="2"/>
       <c r="J32" s="11"/>
-      <c r="K32" s="2"/>
+      <c r="K32" s="11"/>
       <c r="L32" s="2"/>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
-      <c r="O32" s="1"/>
-      <c r="P32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="1"/>
       <c r="Q32" s="2"/>
       <c r="R32" s="2"/>
       <c r="S32" s="2"/>
@@ -1372,8 +1382,9 @@
       <c r="U32" s="2"/>
       <c r="V32" s="2"/>
       <c r="W32" s="2"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X32" s="2"/>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33" s="1"/>
       <c r="B33" s="2"/>
       <c r="C33" s="2"/>
@@ -1382,14 +1393,14 @@
       <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
-      <c r="I33" s="11"/>
+      <c r="I33" s="2"/>
       <c r="J33" s="11"/>
-      <c r="K33" s="2"/>
+      <c r="K33" s="11"/>
       <c r="L33" s="2"/>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
-      <c r="O33" s="1"/>
-      <c r="P33" s="2"/>
+      <c r="O33" s="2"/>
+      <c r="P33" s="1"/>
       <c r="Q33" s="2"/>
       <c r="R33" s="2"/>
       <c r="S33" s="2"/>
@@ -1397,8 +1408,9 @@
       <c r="U33" s="2"/>
       <c r="V33" s="2"/>
       <c r="W33" s="2"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X33" s="2"/>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34" s="1"/>
       <c r="B34" s="2"/>
       <c r="C34" s="2"/>
@@ -1407,14 +1419,14 @@
       <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
-      <c r="I34" s="11"/>
+      <c r="I34" s="2"/>
       <c r="J34" s="11"/>
-      <c r="K34" s="2"/>
+      <c r="K34" s="11"/>
       <c r="L34" s="2"/>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
-      <c r="O34" s="1"/>
-      <c r="P34" s="2"/>
+      <c r="O34" s="2"/>
+      <c r="P34" s="1"/>
       <c r="Q34" s="2"/>
       <c r="R34" s="2"/>
       <c r="S34" s="2"/>
@@ -1422,8 +1434,9 @@
       <c r="U34" s="2"/>
       <c r="V34" s="2"/>
       <c r="W34" s="2"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X34" s="2"/>
+    </row>
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35" s="1"/>
       <c r="B35" s="2"/>
       <c r="C35" s="2"/>
@@ -1432,14 +1445,14 @@
       <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
-      <c r="I35" s="11"/>
+      <c r="I35" s="2"/>
       <c r="J35" s="11"/>
-      <c r="K35" s="2"/>
+      <c r="K35" s="11"/>
       <c r="L35" s="2"/>
       <c r="M35" s="2"/>
       <c r="N35" s="2"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="2"/>
+      <c r="O35" s="2"/>
+      <c r="P35" s="1"/>
       <c r="Q35" s="2"/>
       <c r="R35" s="2"/>
       <c r="S35" s="2"/>
@@ -1447,8 +1460,9 @@
       <c r="U35" s="2"/>
       <c r="V35" s="2"/>
       <c r="W35" s="2"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X35" s="2"/>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36" s="1"/>
       <c r="B36" s="2"/>
       <c r="C36" s="2"/>
@@ -1457,14 +1471,14 @@
       <c r="F36" s="2"/>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
-      <c r="I36" s="11"/>
+      <c r="I36" s="2"/>
       <c r="J36" s="11"/>
-      <c r="K36" s="2"/>
+      <c r="K36" s="11"/>
       <c r="L36" s="2"/>
       <c r="M36" s="2"/>
       <c r="N36" s="2"/>
-      <c r="O36" s="1"/>
-      <c r="P36" s="2"/>
+      <c r="O36" s="2"/>
+      <c r="P36" s="1"/>
       <c r="Q36" s="2"/>
       <c r="R36" s="2"/>
       <c r="S36" s="2"/>
@@ -1472,8 +1486,9 @@
       <c r="U36" s="2"/>
       <c r="V36" s="2"/>
       <c r="W36" s="2"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X36" s="2"/>
+    </row>
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37" s="1"/>
       <c r="B37" s="2"/>
       <c r="C37" s="2"/>
@@ -1482,14 +1497,14 @@
       <c r="F37" s="2"/>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
-      <c r="I37" s="11"/>
+      <c r="I37" s="2"/>
       <c r="J37" s="11"/>
-      <c r="K37" s="2"/>
+      <c r="K37" s="11"/>
       <c r="L37" s="2"/>
       <c r="M37" s="2"/>
       <c r="N37" s="2"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="2"/>
+      <c r="O37" s="2"/>
+      <c r="P37" s="1"/>
       <c r="Q37" s="2"/>
       <c r="R37" s="2"/>
       <c r="S37" s="2"/>
@@ -1497,8 +1512,9 @@
       <c r="U37" s="2"/>
       <c r="V37" s="2"/>
       <c r="W37" s="2"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X37" s="2"/>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38" s="1"/>
       <c r="B38" s="2"/>
       <c r="C38" s="2"/>
@@ -1507,14 +1523,14 @@
       <c r="F38" s="2"/>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
-      <c r="I38" s="11"/>
+      <c r="I38" s="2"/>
       <c r="J38" s="11"/>
-      <c r="K38" s="2"/>
+      <c r="K38" s="11"/>
       <c r="L38" s="2"/>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="2"/>
+      <c r="O38" s="2"/>
+      <c r="P38" s="1"/>
       <c r="Q38" s="2"/>
       <c r="R38" s="2"/>
       <c r="S38" s="2"/>
@@ -1522,8 +1538,9 @@
       <c r="U38" s="2"/>
       <c r="V38" s="2"/>
       <c r="W38" s="2"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X38" s="2"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39" s="1"/>
       <c r="B39" s="2"/>
       <c r="C39" s="2"/>
@@ -1532,14 +1549,14 @@
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
-      <c r="I39" s="11"/>
+      <c r="I39" s="2"/>
       <c r="J39" s="11"/>
-      <c r="K39" s="2"/>
+      <c r="K39" s="11"/>
       <c r="L39" s="2"/>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="2"/>
+      <c r="O39" s="2"/>
+      <c r="P39" s="1"/>
       <c r="Q39" s="2"/>
       <c r="R39" s="2"/>
       <c r="S39" s="2"/>
@@ -1547,8 +1564,9 @@
       <c r="U39" s="2"/>
       <c r="V39" s="2"/>
       <c r="W39" s="2"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X39" s="2"/>
+    </row>
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40" s="1"/>
       <c r="B40" s="2"/>
       <c r="C40" s="2"/>
@@ -1557,14 +1575,14 @@
       <c r="F40" s="2"/>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
-      <c r="I40" s="11"/>
+      <c r="I40" s="2"/>
       <c r="J40" s="11"/>
-      <c r="K40" s="2"/>
+      <c r="K40" s="11"/>
       <c r="L40" s="2"/>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
-      <c r="O40" s="1"/>
-      <c r="P40" s="2"/>
+      <c r="O40" s="2"/>
+      <c r="P40" s="1"/>
       <c r="Q40" s="2"/>
       <c r="R40" s="2"/>
       <c r="S40" s="2"/>
@@ -1572,8 +1590,9 @@
       <c r="U40" s="2"/>
       <c r="V40" s="2"/>
       <c r="W40" s="2"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X40" s="2"/>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41" s="1"/>
       <c r="B41" s="2"/>
       <c r="C41" s="2"/>
@@ -1582,14 +1601,14 @@
       <c r="F41" s="2"/>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
-      <c r="I41" s="11"/>
+      <c r="I41" s="2"/>
       <c r="J41" s="11"/>
-      <c r="K41" s="2"/>
+      <c r="K41" s="11"/>
       <c r="L41" s="2"/>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="2"/>
+      <c r="O41" s="2"/>
+      <c r="P41" s="1"/>
       <c r="Q41" s="2"/>
       <c r="R41" s="2"/>
       <c r="S41" s="2"/>
@@ -1597,8 +1616,9 @@
       <c r="U41" s="2"/>
       <c r="V41" s="2"/>
       <c r="W41" s="2"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X41" s="2"/>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" s="1"/>
       <c r="B42" s="2"/>
       <c r="C42" s="2"/>
@@ -1607,14 +1627,14 @@
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
-      <c r="I42" s="11"/>
+      <c r="I42" s="2"/>
       <c r="J42" s="11"/>
-      <c r="K42" s="2"/>
+      <c r="K42" s="11"/>
       <c r="L42" s="2"/>
       <c r="M42" s="2"/>
       <c r="N42" s="2"/>
-      <c r="O42" s="1"/>
-      <c r="P42" s="2"/>
+      <c r="O42" s="2"/>
+      <c r="P42" s="1"/>
       <c r="Q42" s="2"/>
       <c r="R42" s="2"/>
       <c r="S42" s="2"/>
@@ -1622,8 +1642,9 @@
       <c r="U42" s="2"/>
       <c r="V42" s="2"/>
       <c r="W42" s="2"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X42" s="2"/>
+    </row>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" s="1"/>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -1632,14 +1653,14 @@
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
-      <c r="I43" s="11"/>
+      <c r="I43" s="2"/>
       <c r="J43" s="11"/>
-      <c r="K43" s="2"/>
+      <c r="K43" s="11"/>
       <c r="L43" s="2"/>
       <c r="M43" s="2"/>
       <c r="N43" s="2"/>
-      <c r="O43" s="1"/>
-      <c r="P43" s="2"/>
+      <c r="O43" s="2"/>
+      <c r="P43" s="1"/>
       <c r="Q43" s="2"/>
       <c r="R43" s="2"/>
       <c r="S43" s="2"/>
@@ -1647,8 +1668,9 @@
       <c r="U43" s="2"/>
       <c r="V43" s="2"/>
       <c r="W43" s="2"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X43" s="2"/>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" s="1"/>
       <c r="B44" s="2"/>
       <c r="C44" s="2"/>
@@ -1657,14 +1679,14 @@
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
-      <c r="I44" s="11"/>
+      <c r="I44" s="2"/>
       <c r="J44" s="11"/>
-      <c r="K44" s="2"/>
+      <c r="K44" s="11"/>
       <c r="L44" s="2"/>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="1"/>
       <c r="Q44" s="2"/>
       <c r="R44" s="2"/>
       <c r="S44" s="2"/>
@@ -1672,8 +1694,9 @@
       <c r="U44" s="2"/>
       <c r="V44" s="2"/>
       <c r="W44" s="2"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X44" s="2"/>
+    </row>
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" s="1"/>
       <c r="B45" s="2"/>
       <c r="C45" s="2"/>
@@ -1682,14 +1705,14 @@
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
-      <c r="I45" s="11"/>
+      <c r="I45" s="2"/>
       <c r="J45" s="11"/>
-      <c r="K45" s="2"/>
+      <c r="K45" s="11"/>
       <c r="L45" s="2"/>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
-      <c r="O45" s="1"/>
-      <c r="P45" s="2"/>
+      <c r="O45" s="2"/>
+      <c r="P45" s="1"/>
       <c r="Q45" s="2"/>
       <c r="R45" s="2"/>
       <c r="S45" s="2"/>
@@ -1697,8 +1720,9 @@
       <c r="U45" s="2"/>
       <c r="V45" s="2"/>
       <c r="W45" s="2"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X45" s="2"/>
+    </row>
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" s="1"/>
       <c r="B46" s="2"/>
       <c r="C46" s="2"/>
@@ -1707,14 +1731,14 @@
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
-      <c r="I46" s="11"/>
+      <c r="I46" s="2"/>
       <c r="J46" s="11"/>
-      <c r="K46" s="2"/>
+      <c r="K46" s="11"/>
       <c r="L46" s="2"/>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
-      <c r="O46" s="1"/>
-      <c r="P46" s="2"/>
+      <c r="O46" s="2"/>
+      <c r="P46" s="1"/>
       <c r="Q46" s="2"/>
       <c r="R46" s="2"/>
       <c r="S46" s="2"/>
@@ -1722,8 +1746,9 @@
       <c r="U46" s="2"/>
       <c r="V46" s="2"/>
       <c r="W46" s="2"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X46" s="2"/>
+    </row>
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" s="1"/>
       <c r="B47" s="2"/>
       <c r="C47" s="2"/>
@@ -1732,14 +1757,14 @@
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
-      <c r="I47" s="11"/>
+      <c r="I47" s="2"/>
       <c r="J47" s="11"/>
-      <c r="K47" s="2"/>
+      <c r="K47" s="11"/>
       <c r="L47" s="2"/>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
-      <c r="O47" s="1"/>
-      <c r="P47" s="2"/>
+      <c r="O47" s="2"/>
+      <c r="P47" s="1"/>
       <c r="Q47" s="2"/>
       <c r="R47" s="2"/>
       <c r="S47" s="2"/>
@@ -1747,8 +1772,9 @@
       <c r="U47" s="2"/>
       <c r="V47" s="2"/>
       <c r="W47" s="2"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X47" s="2"/>
+    </row>
+    <row r="48" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A48" s="1"/>
       <c r="B48" s="2"/>
       <c r="C48" s="2"/>
@@ -1757,14 +1783,14 @@
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
-      <c r="I48" s="11"/>
+      <c r="I48" s="2"/>
       <c r="J48" s="11"/>
-      <c r="K48" s="2"/>
+      <c r="K48" s="11"/>
       <c r="L48" s="2"/>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
-      <c r="O48" s="1"/>
-      <c r="P48" s="2"/>
+      <c r="O48" s="2"/>
+      <c r="P48" s="1"/>
       <c r="Q48" s="2"/>
       <c r="R48" s="2"/>
       <c r="S48" s="2"/>
@@ -1772,8 +1798,9 @@
       <c r="U48" s="2"/>
       <c r="V48" s="2"/>
       <c r="W48" s="2"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X48" s="2"/>
+    </row>
+    <row r="49" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A49" s="1"/>
       <c r="B49" s="2"/>
       <c r="C49" s="2"/>
@@ -1782,14 +1809,14 @@
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
-      <c r="I49" s="11"/>
+      <c r="I49" s="2"/>
       <c r="J49" s="11"/>
-      <c r="K49" s="2"/>
+      <c r="K49" s="11"/>
       <c r="L49" s="2"/>
       <c r="M49" s="2"/>
       <c r="N49" s="2"/>
-      <c r="O49" s="1"/>
-      <c r="P49" s="2"/>
+      <c r="O49" s="2"/>
+      <c r="P49" s="1"/>
       <c r="Q49" s="2"/>
       <c r="R49" s="2"/>
       <c r="S49" s="2"/>
@@ -1797,8 +1824,9 @@
       <c r="U49" s="2"/>
       <c r="V49" s="2"/>
       <c r="W49" s="2"/>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X49" s="2"/>
+    </row>
+    <row r="50" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A50" s="1"/>
       <c r="B50" s="2"/>
       <c r="C50" s="2"/>
@@ -1807,14 +1835,14 @@
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
-      <c r="I50" s="11"/>
+      <c r="I50" s="2"/>
       <c r="J50" s="11"/>
-      <c r="K50" s="2"/>
+      <c r="K50" s="11"/>
       <c r="L50" s="2"/>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
-      <c r="O50" s="1"/>
-      <c r="P50" s="2"/>
+      <c r="O50" s="2"/>
+      <c r="P50" s="1"/>
       <c r="Q50" s="2"/>
       <c r="R50" s="2"/>
       <c r="S50" s="2"/>
@@ -1822,8 +1850,9 @@
       <c r="U50" s="2"/>
       <c r="V50" s="2"/>
       <c r="W50" s="2"/>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.25">
+      <c r="X50" s="2"/>
+    </row>
+    <row r="51" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A51" s="1"/>
       <c r="B51" s="2"/>
       <c r="C51" s="2"/>
@@ -1832,14 +1861,14 @@
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
-      <c r="I51" s="11"/>
+      <c r="I51" s="2"/>
       <c r="J51" s="11"/>
-      <c r="K51" s="2"/>
+      <c r="K51" s="11"/>
       <c r="L51" s="2"/>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
-      <c r="O51" s="1"/>
-      <c r="P51" s="2"/>
+      <c r="O51" s="2"/>
+      <c r="P51" s="1"/>
       <c r="Q51" s="2"/>
       <c r="R51" s="2"/>
       <c r="S51" s="2"/>
@@ -1847,6 +1876,7 @@
       <c r="U51" s="2"/>
       <c r="V51" s="2"/>
       <c r="W51" s="2"/>
+      <c r="X51" s="2"/>
     </row>
   </sheetData>
   <dataValidations count="7">
@@ -1861,16 +1891,16 @@
       <formula1>6</formula1>
       <formula2>6</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
       <formula1>"Islam,Kristen"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="J2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2">
       <formula1>"Anak Kandung, Anak Tiri"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2">
       <formula1>"1,2,"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="S2">
       <formula1>"Petani,dll"</formula1>
     </dataValidation>
   </dataValidations>
